--- a/data/trans_orig/P36BPD06_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD06_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36ACD891-3C3C-478F-802A-5CF788167191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC6BCEE9-FD1C-424A-BBEB-3E8426532D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3BFDE3BC-7229-459F-A0B4-A2885210E753}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43B5720A-A71B-4058-AAA2-351C8E8B1770}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>10,69%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
   </si>
   <si>
     <t>9,33%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
   </si>
   <si>
     <t>9,92%</t>
   </si>
   <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
@@ -104,28 +104,28 @@
     <t>89,31%</t>
   </si>
   <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
   </si>
   <si>
     <t>90,67%</t>
   </si>
   <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
   </si>
   <si>
     <t>90,08%</t>
   </si>
   <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>20,93%</t>
   </si>
   <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
   </si>
   <si>
     <t>20,47%</t>
   </si>
   <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
   </si>
   <si>
     <t>20,69%</t>
   </si>
   <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
   </si>
   <si>
     <t>79,07%</t>
   </si>
   <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
   </si>
   <si>
     <t>79,53%</t>
   </si>
   <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
   </si>
   <si>
     <t>79,31%</t>
   </si>
   <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -194,55 +194,55 @@
     <t>26,41%</t>
   </si>
   <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
   </si>
   <si>
     <t>26,18%</t>
   </si>
   <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
   </si>
   <si>
     <t>26,3%</t>
   </si>
   <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
   </si>
   <si>
     <t>73,59%</t>
   </si>
   <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
   </si>
   <si>
     <t>73,82%</t>
   </si>
   <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
   </si>
   <si>
     <t>73,7%</t>
   </si>
   <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -251,55 +251,55 @@
     <t>20,95%</t>
   </si>
   <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
   </si>
   <si>
     <t>31,54%</t>
   </si>
   <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
   </si>
   <si>
     <t>26,73%</t>
   </si>
   <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
   </si>
   <si>
     <t>79,05%</t>
   </si>
   <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
   </si>
   <si>
     <t>68,46%</t>
   </si>
   <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
   </si>
   <si>
     <t>73,27%</t>
   </si>
   <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,109 @@
     <t>27,28%</t>
   </si>
   <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
   </si>
   <si>
     <t>29,88%</t>
   </si>
   <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
   </si>
   <si>
     <t>28,7%</t>
   </si>
   <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
   </si>
   <si>
     <t>72,72%</t>
   </si>
   <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
   </si>
   <si>
     <t>70,12%</t>
   </si>
   <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
   </si>
   <si>
     <t>71,3%</t>
   </si>
   <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
   </si>
   <si>
     <t>24,12%</t>
   </si>
   <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
   </si>
   <si>
     <t>27,06%</t>
   </si>
   <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
   </si>
   <si>
     <t>25,68%</t>
   </si>
   <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
   </si>
   <si>
     <t>75,88%</t>
   </si>
   <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
   </si>
   <si>
     <t>72,94%</t>
   </si>
   <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E0964F-CE11-446E-AAD1-4BAFB2C7EA39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DF677E-8D33-4B79-8F50-81D5E9403D74}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1647,7 +1647,7 @@
         <v>1870</v>
       </c>
       <c r="N17" s="7">
-        <v>1502996</v>
+        <v>1502995</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1698,7 +1698,7 @@
         <v>2557</v>
       </c>
       <c r="N18" s="7">
-        <v>2107985</v>
+        <v>2107984</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P36BPD06_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD06_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC6BCEE9-FD1C-424A-BBEB-3E8426532D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BA5A56F-0750-4504-ABA2-1BF4BD2E133B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43B5720A-A71B-4058-AAA2-351C8E8B1770}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F371C029-769E-42D6-8475-094164F25AED}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población según el número de raciones de mantequilla, margarina o nata que consume al día en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -65,352 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Una o más al día</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
   </si>
   <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DF677E-8D33-4B79-8F50-81D5E9403D74}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DEF584-E34F-46D0-84B1-BAF2362265E2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D4" s="7">
-        <v>10704</v>
+        <v>112384</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="I4" s="7">
-        <v>12196</v>
+        <v>119999</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>33</v>
+        <v>332</v>
       </c>
       <c r="N4" s="7">
-        <v>22900</v>
+        <v>232383</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>104</v>
+        <v>600</v>
       </c>
       <c r="D5" s="7">
-        <v>89413</v>
+        <v>518988</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>222</v>
+        <v>1032</v>
       </c>
       <c r="I5" s="7">
-        <v>118537</v>
+        <v>555371</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>326</v>
+        <v>1632</v>
       </c>
       <c r="N5" s="7">
-        <v>207949</v>
+        <v>1074359</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>116</v>
+        <v>726</v>
       </c>
       <c r="D6" s="7">
-        <v>100117</v>
+        <v>631372</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675370</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>359</v>
+        <v>1964</v>
       </c>
       <c r="N6" s="7">
-        <v>230849</v>
+        <v>1306742</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>114</v>
+        <v>247</v>
       </c>
       <c r="D7" s="7">
-        <v>114560</v>
+        <v>251136</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>185</v>
+        <v>379</v>
       </c>
       <c r="I7" s="7">
-        <v>121303</v>
+        <v>241189</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>299</v>
+        <v>626</v>
       </c>
       <c r="N7" s="7">
-        <v>235863</v>
+        <v>492325</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>496</v>
+        <v>712</v>
       </c>
       <c r="D8" s="7">
-        <v>432909</v>
+        <v>937657</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>810</v>
+        <v>1132</v>
       </c>
       <c r="I8" s="7">
-        <v>471252</v>
+        <v>714519</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1306</v>
+        <v>1844</v>
       </c>
       <c r="N8" s="7">
-        <v>904161</v>
+        <v>1652176</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>610</v>
+        <v>959</v>
       </c>
       <c r="D9" s="7">
-        <v>547469</v>
+        <v>1188793</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>995</v>
+        <v>1511</v>
       </c>
       <c r="I9" s="7">
-        <v>592555</v>
+        <v>955708</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1605</v>
+        <v>2470</v>
       </c>
       <c r="N9" s="7">
-        <v>1140024</v>
+        <v>2144501</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>247</v>
+        <v>146</v>
       </c>
       <c r="D10" s="7">
-        <v>273333</v>
+        <v>137482</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>379</v>
+        <v>211</v>
       </c>
       <c r="I10" s="7">
-        <v>276707</v>
+        <v>351057</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>626</v>
+        <v>357</v>
       </c>
       <c r="N10" s="7">
-        <v>550040</v>
+        <v>488538</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1304,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>712</v>
+        <v>529</v>
       </c>
       <c r="D11" s="7">
-        <v>761455</v>
+        <v>565923</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>1132</v>
+        <v>836</v>
       </c>
       <c r="I11" s="7">
-        <v>780208</v>
+        <v>582309</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1844</v>
+        <v>1365</v>
       </c>
       <c r="N11" s="7">
-        <v>1541664</v>
+        <v>1148233</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>959</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1034788</v>
+        <v>703405</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1511</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1056915</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2470</v>
+        <v>1722</v>
       </c>
       <c r="N12" s="7">
-        <v>2091704</v>
+        <v>1636771</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>146</v>
+        <v>269</v>
       </c>
       <c r="D13" s="7">
-        <v>152357</v>
+        <v>239604</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>211</v>
+        <v>418</v>
       </c>
       <c r="I13" s="7">
-        <v>275791</v>
+        <v>353759</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>357</v>
+        <v>687</v>
       </c>
       <c r="N13" s="7">
-        <v>428148</v>
+        <v>593364</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1459,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>529</v>
+        <v>731</v>
       </c>
       <c r="D14" s="7">
-        <v>575052</v>
+        <v>682216</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1474,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>836</v>
+        <v>1139</v>
       </c>
       <c r="I14" s="7">
-        <v>598580</v>
+        <v>738860</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1489,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1365</v>
+        <v>1870</v>
       </c>
       <c r="N14" s="7">
-        <v>1173632</v>
+        <v>1421075</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1510,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>1000</v>
       </c>
       <c r="D15" s="7">
-        <v>727409</v>
+        <v>921820</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1557</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1092619</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1722</v>
+        <v>2557</v>
       </c>
       <c r="N15" s="7">
-        <v>1601780</v>
+        <v>2014439</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>269</v>
+        <v>788</v>
       </c>
       <c r="D16" s="7">
-        <v>261933</v>
+        <v>740606</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>1214</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1066004</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>418</v>
-      </c>
-      <c r="I16" s="7">
-        <v>343056</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>2002</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1806611</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>687</v>
-      </c>
-      <c r="N16" s="7">
-        <v>604989</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>731</v>
+        <v>2572</v>
       </c>
       <c r="D17" s="7">
-        <v>698117</v>
+        <v>2704784</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>4139</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2591059</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>1139</v>
-      </c>
-      <c r="I17" s="7">
-        <v>804878</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6711</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5295842</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>1870</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1502995</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1000</v>
+        <v>3360</v>
       </c>
       <c r="D18" s="7">
-        <v>960050</v>
+        <v>3445390</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1557</v>
+        <v>5353</v>
       </c>
       <c r="I18" s="7">
-        <v>1147934</v>
+        <v>3657063</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2557</v>
+        <v>8713</v>
       </c>
       <c r="N18" s="7">
-        <v>2107984</v>
+        <v>7102453</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>788</v>
-      </c>
-      <c r="D19" s="7">
-        <v>812886</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1214</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1029054</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2002</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1841939</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2572</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2556947</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4139</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2773454</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6711</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5330402</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3360</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3369833</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5353</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3802508</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8713</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7172341</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
